--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W5_H200_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W5_H200_B16.xlsx
@@ -518,7 +518,7 @@
         <v>0.7126436781609196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4702380952380952</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.127692942387289</v>
+        <v>0.1083588980000499</v>
       </c>
       <c r="J2" t="n">
-        <v>1699.537974023331</v>
+        <v>1417.444149614083</v>
       </c>
       <c r="K2" t="n">
-        <v>4081014.459785889</v>
+        <v>2774117.253549129</v>
       </c>
       <c r="L2" t="n">
-        <v>2020.152088280951</v>
+        <v>1665.568147374682</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2479175773004915</v>
+        <v>0.4887631873249483</v>
       </c>
     </row>
   </sheetData>
